--- a/excel-groupby-multiple-agg.xlsx
+++ b/excel-groupby-multiple-agg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7936322F-F0FF-4205-81BF-1EA04D8A0344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC6C9C9-617B-4D82-87C9-B8F8D80F857F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{79A7B055-D0AB-42E9-8604-C026C147C1D7}"/>
   </bookViews>
@@ -33,6 +33,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -121,6 +143,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{19FB310E-5FDE-49BE-A67E-892E2C6F73E7}" name="mpg" displayName="mpg" ref="A1:H399" totalsRowShown="0">
+  <autoFilter ref="A1:H399" xr:uid="{19FB310E-5FDE-49BE-A67E-892E2C6F73E7}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{BC6D2BBD-C38F-49DF-802F-81021EF176C7}" name="mpg"/>
+    <tableColumn id="2" xr3:uid="{925BBB4F-31F9-4AE3-955C-04E5EAA7C8DE}" name="cylinders"/>
+    <tableColumn id="3" xr3:uid="{282D1BA2-E249-4511-90F7-7E7C9B7E1CC7}" name="displacement"/>
+    <tableColumn id="4" xr3:uid="{70562BD6-391D-4DDE-9F43-D0D19191771E}" name="horsepower"/>
+    <tableColumn id="5" xr3:uid="{4D783D1B-6CAB-4B64-A269-C3013C930932}" name="weight"/>
+    <tableColumn id="6" xr3:uid="{23067C2F-524A-4CE7-8B36-9F2B294720BD}" name="acceleration"/>
+    <tableColumn id="7" xr3:uid="{A4ADBDD0-CE44-4322-855A-DA3154945955}" name="model_year"/>
+    <tableColumn id="8" xr3:uid="{02A3CCDB-5B55-448D-A2C4-2546F3003099}" name="origin"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -440,15 +479,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995F87A0-5FB5-4EA7-86D6-99D23DBAC365}">
-  <dimension ref="A1:H399"/>
+  <dimension ref="A1:K399"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.65" x14ac:dyDescent="0.85"/>
+  <cols>
+    <col min="2" max="2" width="8.92578125" customWidth="1"/>
+    <col min="3" max="3" width="12.58984375" customWidth="1"/>
+    <col min="4" max="4" width="11.0703125" customWidth="1"/>
+    <col min="6" max="6" width="11.62890625" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -474,7 +520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.85">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A2">
         <v>18</v>
       </c>
@@ -499,8 +545,15 @@
       <c r="H2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.85">
+      <c r="J2" t="str" cm="1">
+        <f t="array" ref="J2:K5">_xlfn.GROUPBY(mpg[origin], mpg[mpg], _xleta.AVERAGE)</f>
+        <v>europe</v>
+      </c>
+      <c r="K2">
+        <v>27.891428571428573</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A3">
         <v>15</v>
       </c>
@@ -525,8 +578,14 @@
       <c r="H3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.85">
+      <c r="J3" t="str">
+        <v>japan</v>
+      </c>
+      <c r="K3">
+        <v>30.450632911392397</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A4">
         <v>18</v>
       </c>
@@ -551,8 +610,14 @@
       <c r="H4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.85">
+      <c r="J4" t="str">
+        <v>usa</v>
+      </c>
+      <c r="K4">
+        <v>20.083534136546177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A5">
         <v>16</v>
       </c>
@@ -577,8 +642,14 @@
       <c r="H5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.85">
+      <c r="J5" t="str">
+        <v>Total</v>
+      </c>
+      <c r="K5">
+        <v>23.514572864321615</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A6">
         <v>17</v>
       </c>
@@ -604,7 +675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.85">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A7">
         <v>15</v>
       </c>
@@ -630,7 +701,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.85">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A8">
         <v>14</v>
       </c>
@@ -656,7 +727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.85">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A9">
         <v>14</v>
       </c>
@@ -682,7 +753,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.85">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A10">
         <v>14</v>
       </c>
@@ -708,7 +779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.85">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A11">
         <v>15</v>
       </c>
@@ -734,7 +805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.85">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A12">
         <v>15</v>
       </c>
@@ -760,7 +831,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.85">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A13">
         <v>14</v>
       </c>
@@ -786,7 +857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.85">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A14">
         <v>15</v>
       </c>
@@ -812,7 +883,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.85">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A15">
         <v>14</v>
       </c>
@@ -838,7 +909,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.85">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A16">
         <v>24</v>
       </c>
@@ -10806,5 +10877,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>